--- a/groups/23-24-Udmurtia/tasks_results/23.12.17.xlsx
+++ b/groups/23-24-Udmurtia/tasks_results/23.12.17.xlsx
@@ -10,61 +10,67 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$H$17</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>№</t>
   </si>
   <si>
+    <t>Вадретдинов Карим</t>
+  </si>
+  <si>
+    <t>Ившин Роман</t>
+  </si>
+  <si>
+    <t>Коткин Егор</t>
+  </si>
+  <si>
+    <t>Мясников Павел</t>
+  </si>
+  <si>
+    <t>Самарин Михаил</t>
+  </si>
+  <si>
     <t>Третьяков Кирилл</t>
   </si>
   <si>
-    <t>Коткин Егор</t>
-  </si>
-  <si>
-    <t>Ившин Роман</t>
-  </si>
-  <si>
-    <t>Мясников Павел</t>
-  </si>
-  <si>
-    <t>Вадретдинов Карим</t>
-  </si>
-  <si>
-    <t>Самарин Михаил</t>
-  </si>
-  <si>
-    <t>Юлия Андреевна</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>Маратканова Юлия</t>
+  </si>
+  <si>
+    <t>Acmp</t>
+  </si>
+  <si>
+    <t>477978</t>
+  </si>
+  <si>
+    <t>480936</t>
+  </si>
+  <si>
+    <t>477975</t>
+  </si>
+  <si>
+    <t>478222</t>
+  </si>
+  <si>
+    <t>480961</t>
   </si>
   <si>
     <t>479917</t>
   </si>
   <si>
-    <t>477975</t>
-  </si>
-  <si>
-    <t>480936</t>
-  </si>
-  <si>
-    <t>478222</t>
-  </si>
-  <si>
-    <t>477978</t>
-  </si>
-  <si>
-    <t>480961</t>
-  </si>
-  <si>
     <t>477982</t>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>+</t>
@@ -468,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -536,31 +542,31 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -578,37 +584,55 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -616,39 +640,47 @@
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H16"/>
+  <autoFilter ref="A1:H17"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -657,18 +689,25 @@
     <hyperlink ref="F2" r:id="rId5"/>
     <hyperlink ref="G2" r:id="rId6"/>
     <hyperlink ref="H2" r:id="rId7"/>
-    <hyperlink ref="A5" r:id="rId8"/>
-    <hyperlink ref="A6" r:id="rId9"/>
-    <hyperlink ref="A7" r:id="rId10"/>
-    <hyperlink ref="A8" r:id="rId11"/>
-    <hyperlink ref="A9" r:id="rId12"/>
-    <hyperlink ref="A10" r:id="rId13"/>
-    <hyperlink ref="A11" r:id="rId14"/>
-    <hyperlink ref="A12" r:id="rId15"/>
-    <hyperlink ref="A13" r:id="rId16"/>
-    <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A15" r:id="rId18"/>
-    <hyperlink ref="A16" r:id="rId19"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="E3" r:id="rId11"/>
+    <hyperlink ref="F3" r:id="rId12"/>
+    <hyperlink ref="G3" r:id="rId13"/>
+    <hyperlink ref="H3" r:id="rId14"/>
+    <hyperlink ref="A6" r:id="rId15"/>
+    <hyperlink ref="A7" r:id="rId16"/>
+    <hyperlink ref="A8" r:id="rId17"/>
+    <hyperlink ref="A9" r:id="rId18"/>
+    <hyperlink ref="A10" r:id="rId19"/>
+    <hyperlink ref="A11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="A14" r:id="rId23"/>
+    <hyperlink ref="A15" r:id="rId24"/>
+    <hyperlink ref="A16" r:id="rId25"/>
+    <hyperlink ref="A17" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
